--- a/components used.xlsx
+++ b/components used.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kicad\Micromouse-PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D70568F7-CED6-4B2D-8317-3F41DD6632E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C746C3-7EA3-4B24-B58B-3BC2F8E39DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0AF3FB1E-60FC-4681-8F28-22F2C65B340E}"/>
   </bookViews>
@@ -80,12 +80,6 @@
     <t>links</t>
   </si>
   <si>
-    <t>1.2*2=₹3.2</t>
-  </si>
-  <si>
-    <t>553 *3=₹1659</t>
-  </si>
-  <si>
     <t>https://robu.in/product/0-96-inch-i2c-iic-oled-lcd-module-4pin-with-vcc-gnd-blue/</t>
   </si>
   <si>
@@ -125,10 +119,16 @@
     <t>https://robu.in/product/bonka-7-4v-850mah-25c-2s-lithium-polymer-battery-pack/</t>
   </si>
   <si>
-    <t>365 *2 =₹730</t>
-  </si>
-  <si>
-    <t>total = 4601.2</t>
+    <t>tyre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">castor </t>
+  </si>
+  <si>
+    <t>https://robu.in/product/3pi-miniq-car-wheel-tyre-42mm-n20-dc-gear-motor-wheel/</t>
+  </si>
+  <si>
+    <t>https://robu.in/product/mini-3pi-car-n20-caster-robot-ball-wheel/</t>
   </si>
 </sst>
 </file>
@@ -137,9 +137,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
-    <numFmt numFmtId="168" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +157,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333E48"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,19 +187,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,13 +536,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9247F1FB-AFDA-4B0D-9DD3-43C9DB32EB6C}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="141.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -550,8 +566,8 @@
       <c r="D3" s="2">
         <v>160</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -561,8 +577,8 @@
       <c r="D4" s="1">
         <v>459</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -572,19 +588,20 @@
       <c r="D5" s="1">
         <v>173</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
+      <c r="D6">
+        <f>365*2</f>
+        <v>730</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -594,19 +611,20 @@
       <c r="D7" s="1">
         <v>447</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
+      <c r="D8">
+        <f>1.6*2</f>
+        <v>3.2</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -616,8 +634,8 @@
       <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" t="s">
-        <v>22</v>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -627,8 +645,8 @@
       <c r="D10" s="1">
         <v>29</v>
       </c>
-      <c r="F10" t="s">
-        <v>23</v>
+      <c r="F10" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -638,8 +656,8 @@
       <c r="D11" s="1">
         <v>13.6</v>
       </c>
-      <c r="F11" t="s">
-        <v>24</v>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -649,39 +667,81 @@
       <c r="D12" s="1">
         <v>75</v>
       </c>
-      <c r="F12" t="s">
-        <v>25</v>
+      <c r="F12" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
+      <c r="D13">
+        <f>553*3</f>
+        <v>1659</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
         <v>849</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <f>51*2</f>
+        <v>102</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D16" s="4" t="s">
+      <c r="D16">
+        <f>39*2</f>
+        <v>78</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="4">
+        <f>SUM(D3:D16)</f>
+        <v>4780.8</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F15" r:id="rId1" xr:uid="{503145B8-F6A6-48D7-BE1D-8839727FC7BC}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{0F52C2C2-B790-410A-92C5-FB96A49AE1ED}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{B2950AF2-EDCD-4D4B-92C3-B407E1AEC60B}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{5736A9FC-8077-40A3-87F7-0EF98384A72D}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{CB8BEA77-5803-49D5-874A-351948EFD369}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{46057F03-9227-4654-92D5-3B9CACA3CAFA}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{D4DB9CCB-14B7-4837-86F0-870E420E0065}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{93786C96-F5A2-472D-8FEC-AB37225DC188}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{6B1BFD61-55A7-461B-B8AD-7566A2D41D2B}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{4D87FB9D-F29F-43B1-A37E-1B12BD9BE173}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{F4231E5B-0089-41AD-A72B-6A744D1D3609}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{679FC5B4-E9CC-4999-AF0B-82C57FDD3DF3}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{5EECB9A4-0BA6-44D8-BE28-C2068A72F985}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{64B3978C-9114-4DC5-AD63-B1F61CE5B031}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>